--- a/excel-mock-data.xlsx
+++ b/excel-mock-data.xlsx
@@ -25,10 +25,10 @@
     <t>email</t>
   </si>
   <si>
+    <t>DOB</t>
+  </si>
+  <si>
     <t>DOJ</t>
-  </si>
-  <si>
-    <t>punchtime</t>
   </si>
   <si>
     <t>Chelsy</t>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showOutlineSymbols="0" tabSelected="1" zoomScalePageLayoutView="0" zoomScaleSheetLayoutView="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1135,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>45126</v>
+        <v>33073</v>
       </c>
       <c r="E2" s="2">
         <v>45069.5659722222</v>
@@ -1152,7 +1152,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1">
-        <v>45214</v>
+        <v>33892</v>
       </c>
       <c r="E3" s="2">
         <v>45188.350775463</v>
@@ -1169,10 +1169,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>45302</v>
+        <v>32520</v>
       </c>
       <c r="E4" s="2">
-        <v>45307.1355787037</v>
+        <v>44577.1355787037</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1186,10 +1186,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="1">
-        <v>45390</v>
+        <v>33073</v>
       </c>
       <c r="E5" s="2">
-        <v>45425.9203819444</v>
+        <v>45068.9203819444</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1203,10 +1203,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>45478</v>
+        <v>33892</v>
       </c>
       <c r="E6" s="2">
-        <v>45544.7051851852</v>
+        <v>45187.7051851852</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1220,10 +1220,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="1">
-        <v>45566</v>
+        <v>32520</v>
       </c>
       <c r="E7" s="2">
-        <v>45663.4899884259</v>
+        <v>44576.4899884259</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1237,10 +1237,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="1">
-        <v>45654</v>
+        <v>33073</v>
       </c>
       <c r="E8" s="2">
-        <v>45782.2747916667</v>
+        <v>45068.2747916666</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1254,10 +1254,10 @@
         <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>45742</v>
+        <v>33892</v>
       </c>
       <c r="E9" s="2">
-        <v>45901.0595949074</v>
+        <v>45187.0595949074</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1271,10 +1271,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="1">
-        <v>45830</v>
+        <v>32520</v>
       </c>
       <c r="E10" s="2">
-        <v>46019.8443981481</v>
+        <v>44575.8443981481</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1288,10 +1288,10 @@
         <v>24</v>
       </c>
       <c r="D11" s="1">
-        <v>45918</v>
+        <v>33073</v>
       </c>
       <c r="E11" s="2">
-        <v>46138.6292013889</v>
+        <v>45067.6292013889</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1305,10 +1305,10 @@
         <v>26</v>
       </c>
       <c r="D12" s="1">
-        <v>46006</v>
+        <v>33892</v>
       </c>
       <c r="E12" s="2">
-        <v>46257.4140046296</v>
+        <v>45186.4140046297</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1322,10 +1322,10 @@
         <v>28</v>
       </c>
       <c r="D13" s="1">
-        <v>46094</v>
+        <v>32520</v>
       </c>
       <c r="E13" s="2">
-        <v>46376.1988078704</v>
+        <v>44575.1988078704</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1339,10 +1339,10 @@
         <v>30</v>
       </c>
       <c r="D14" s="1">
-        <v>46182</v>
+        <v>33073</v>
       </c>
       <c r="E14" s="2">
-        <v>46494.9836111111</v>
+        <v>45066.9836111111</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1356,10 +1356,10 @@
         <v>32</v>
       </c>
       <c r="D15" s="1">
-        <v>46270</v>
+        <v>33892</v>
       </c>
       <c r="E15" s="2">
-        <v>46613.7684143518</v>
+        <v>45185.7684143519</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1373,10 +1373,10 @@
         <v>34</v>
       </c>
       <c r="D16" s="1">
-        <v>46358</v>
+        <v>32520</v>
       </c>
       <c r="E16" s="2">
-        <v>46732.5532175926</v>
+        <v>44574.5532175926</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1390,10 +1390,10 @@
         <v>36</v>
       </c>
       <c r="D17" s="1">
-        <v>46446</v>
+        <v>33073</v>
       </c>
       <c r="E17" s="2">
-        <v>46851.3380208333</v>
+        <v>45066.3380208333</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1407,10 +1407,10 @@
         <v>38</v>
       </c>
       <c r="D18" s="1">
-        <v>46534</v>
+        <v>33892</v>
       </c>
       <c r="E18" s="2">
-        <v>46970.1228240741</v>
+        <v>45185.1228240741</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1424,10 +1424,10 @@
         <v>40</v>
       </c>
       <c r="D19" s="1">
-        <v>46622</v>
+        <v>32520</v>
       </c>
       <c r="E19" s="2">
-        <v>47088.9076273148</v>
+        <v>44573.9076273148</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1441,10 +1441,10 @@
         <v>42</v>
       </c>
       <c r="D20" s="1">
-        <v>46710</v>
+        <v>33073</v>
       </c>
       <c r="E20" s="2">
-        <v>47207.6924305556</v>
+        <v>45065.6924305555</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1458,10 +1458,10 @@
         <v>44</v>
       </c>
       <c r="D21" s="1">
-        <v>46798</v>
+        <v>33892</v>
       </c>
       <c r="E21" s="2">
-        <v>47326.4772337963</v>
+        <v>45184.4772337963</v>
       </c>
     </row>
   </sheetData>
